--- a/result.xlsx
+++ b/result.xlsx
@@ -12,7 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>material vendor code</t>
+  </si>
+  <si>
+    <t>attribute guid</t>
+  </si>
+  <si>
+    <t>Group guid</t>
+  </si>
+  <si>
+    <t>material guid</t>
+  </si>
+  <si>
+    <t>material name</t>
+  </si>
+  <si>
+    <t>group name</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58,13 +77,37 @@
   <sheetPr>
     <outlinePr summaryBelow="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>material vendor code</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>group name</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Майки / Футболки / Рубашки / Комбинезоны</t>
   </si>
 </sst>
 </file>
@@ -104,8 +110,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="D3" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
